--- a/document/plan v1.xlsx
+++ b/document/plan v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction&amp;Alert Hbase" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>user manage(role , user goup)</t>
+  </si>
+  <si>
+    <t>select single transaction by id</t>
+  </si>
+  <si>
+    <t>logout , cookie control</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -454,7 +460,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -468,6 +473,22 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -477,6 +498,88 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -549,6 +652,36 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -628,13 +761,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -651,29 +777,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -756,13 +859,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -778,98 +874,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -916,7 +921,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A1:D18"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id" dataDxfId="24"/>
@@ -929,7 +934,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D18" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D18" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:D18"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id" dataDxfId="17"/>
@@ -942,26 +947,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:D30" totalsRowShown="0" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:D30" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="3"/>
-    <tableColumn id="2" name="task content" dataDxfId="2"/>
-    <tableColumn id="3" name="man-hour ( hour/ per person)" dataDxfId="1"/>
-    <tableColumn id="4" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="10"/>
+    <tableColumn id="2" name="task content" dataDxfId="9"/>
+    <tableColumn id="3" name="man-hour ( hour/ per person)" dataDxfId="8"/>
+    <tableColumn id="4" name="comment" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="A1:D21" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="A1:D21" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D21"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="7"/>
-    <tableColumn id="2" name="task content" dataDxfId="6"/>
-    <tableColumn id="3" name="man-hour ( hour/ per person)" dataDxfId="5"/>
-    <tableColumn id="4" name="comment" dataDxfId="4"/>
+    <tableColumn id="1" name="id" dataDxfId="3"/>
+    <tableColumn id="2" name="task content" dataDxfId="2"/>
+    <tableColumn id="3" name="man-hour ( hour/ per person)" dataDxfId="1"/>
+    <tableColumn id="4" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1256,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,31 +1343,31 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11"/>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10"/>
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1426,7 @@
       </c>
       <c r="G11">
         <f>SUM(C2:C19)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1475,12 +1480,16 @@
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -1511,7 +1520,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,7 +1739,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A16" sqref="A16:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,16 +1873,16 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="19">
-        <v>4</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1943,40 +1952,40 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1"/>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1"/>
+      <c r="C17" s="6">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="C18" s="6">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2126,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2222,16 +2231,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="C7" s="6">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
@@ -2288,7 +2297,7 @@
       </c>
       <c r="G11">
         <f>SUM(C2:C19)</f>
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2316,16 +2325,16 @@
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>20</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2342,12 +2351,16 @@
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7">

--- a/document/plan v1.xlsx
+++ b/document/plan v1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction&amp;Alert Hbase" sheetId="2" r:id="rId1"/>
-    <sheet name="Sceniaro" sheetId="3" r:id="rId2"/>
+    <sheet name="Scenario" sheetId="3" r:id="rId2"/>
     <sheet name="Backend" sheetId="4" r:id="rId3"/>
     <sheet name="Frontend" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>logout , cookie control</t>
+  </si>
+  <si>
+    <t>workflow index page</t>
+  </si>
+  <si>
+    <t>workflow editing page</t>
+  </si>
+  <si>
+    <t>document engine page</t>
+  </si>
+  <si>
+    <t>document base api</t>
   </si>
 </sst>
 </file>
@@ -290,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +323,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -440,7 +458,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -460,6 +478,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -1261,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,7 +1446,7 @@
       </c>
       <c r="G11">
         <f>SUM(C2:C19)</f>
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1492,12 +1512,16 @@
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="8">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
@@ -1520,7 +1544,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,14 +1582,14 @@
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6">
-        <v>4</v>
+      <c r="C3" s="20">
+        <v>20</v>
       </c>
       <c r="D3" s="10"/>
     </row>
@@ -1681,7 +1705,7 @@
       </c>
       <c r="G11">
         <f>SUM(C2:C19)</f>
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1738,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1885,16 +1909,16 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -1904,28 +1928,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -2135,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2297,7 +2321,7 @@
       </c>
       <c r="G11">
         <f>SUM(C2:C19)</f>
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2363,27 +2387,39 @@
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="8">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
